--- a/ExperimentalLinearAndNonlinear/FileIndex_LinearSets.xlsx
+++ b/ExperimentalLinearAndNonlinear/FileIndex_LinearSets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Millefolium\Documents\Lab\ANN_Rev_PreClean_Images\ExperimentalLinearAndNonlinear\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Lab\MNN_Data\MechanicaNerualNetworkData\ExperimentalLinearAndNonlinear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DB3F9E-162A-43C2-BFD1-39CA1A2FEC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942A9BA1-884F-40EA-A38D-01959F3C7A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37100" yWindow="1300" windowWidth="19200" windowHeight="10360" xr2:uid="{6B5625B3-9A62-48AE-8965-2EE7DE9FBD38}"/>
+    <workbookView xWindow="-25320" yWindow="360" windowWidth="25440" windowHeight="15390" xr2:uid="{6B5625B3-9A62-48AE-8965-2EE7DE9FBD38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>rng2\Linear\Hardware_NoScaling_PartialPattern_rps_At_20220330T103538.mat</t>
   </si>
@@ -404,40 +404,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DF01A2-99C3-42C0-98FB-5F5327490C6E}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
